--- a/Спецификация.xlsx
+++ b/Спецификация.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="24" windowWidth="8580" windowHeight="4776"/>
+    <workbookView xWindow="288" yWindow="24" windowWidth="7704" windowHeight="4776"/>
   </bookViews>
   <sheets>
     <sheet name="Контроль протечек" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t>Клемник х 2 - 5  мм</t>
   </si>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,7 +538,7 @@
       </c>
       <c r="E1">
         <f>SUM(D:D)</f>
-        <v>790.13800000000003</v>
+        <v>912.07199999999989</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
         <f>VLOOKUP(A2,'Компоненты цена'!A:B,2,1)</f>
@@ -554,7 +554,7 @@
       </c>
       <c r="D2">
         <f>C2*B2</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -562,15 +562,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2">
         <f>VLOOKUP(A3,'Компоненты цена'!A:B,2,1)</f>
         <v>5</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D38" si="0">C3*B3</f>
-        <v>20</v>
+        <f t="shared" ref="D3:D33" si="0">C3*B3</f>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -578,7 +578,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="2">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2">
         <f>VLOOKUP(A4,'Компоненты цена'!A:B,2,1)</f>
@@ -586,7 +586,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -594,7 +594,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2">
         <f>VLOOKUP(A5,'Компоненты цена'!A:B,2,1)</f>
@@ -602,7 +602,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>52.08</v>
+        <v>104.16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -610,7 +610,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2">
         <f>VLOOKUP(A6,'Компоненты цена'!A:B,2,1)</f>
@@ -618,7 +618,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>19.399999999999999</v>
+        <v>38.799999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -626,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP(A7,'Компоненты цена'!A:B,2,1)</f>
@@ -634,7 +634,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -642,7 +642,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2">
         <f>VLOOKUP(A8,'Компоненты цена'!A:B,2,1)</f>
@@ -650,7 +650,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -722,7 +722,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="2">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2">
         <f>VLOOKUP(A13,'Компоненты цена'!A:B,2,1)</f>
@@ -730,7 +730,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -738,7 +738,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2">
         <f>VLOOKUP(A14,'Компоненты цена'!A:B,2,1)</f>
@@ -746,60 +746,60 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2">
         <f>VLOOKUP(A15,'Компоненты цена'!A:B,2,1)</f>
-        <v>1</v>
+        <v>1.746</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>3.492</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
       </c>
       <c r="C16" s="2">
         <f>VLOOKUP(A16,'Компоненты цена'!A:B,2,1)</f>
-        <v>1.746</v>
+        <v>36.86</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>1.746</v>
+        <v>36.86</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
       </c>
       <c r="C17" s="2">
         <f>VLOOKUP(A17,'Компоненты цена'!A:B,2,1)</f>
-        <v>36.86</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>36.86</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -815,74 +815,74 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
       </c>
       <c r="C19" s="2">
         <f>VLOOKUP(A19,'Компоненты цена'!A:B,2,1)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
       </c>
       <c r="C20" s="2">
         <f>VLOOKUP(A20,'Компоненты цена'!A:B,2,1)</f>
-        <v>1</v>
+        <v>110.32</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>110.32</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2">
         <f>VLOOKUP(A21,'Компоненты цена'!A:B,2,1)</f>
-        <v>1.746</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>1.746</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="2">
         <f>VLOOKUP(A22,'Компоненты цена'!A:B,2,1)</f>
-        <v>110.32</v>
+        <v>15.52</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>110.32</v>
+        <v>31.04</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C23" s="2">
         <f>VLOOKUP(A23,'Компоненты цена'!A:B,2,1)</f>
@@ -890,108 +890,108 @@
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2">
         <f>VLOOKUP(A24,'Компоненты цена'!A:B,2,1)</f>
-        <v>15.52</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>31.04</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
       </c>
       <c r="C25" s="2">
         <f>VLOOKUP(A25,'Компоненты цена'!A:B,2,1)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
       </c>
       <c r="C26" s="2">
         <f>VLOOKUP(A26,'Компоненты цена'!A:B,2,1)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="2">
         <f>VLOOKUP(A27,'Компоненты цена'!A:B,2,1)</f>
-        <v>5</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C28" s="2">
         <f>VLOOKUP(A28,'Компоненты цена'!A:B,2,1)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C29" s="2">
         <f>VLOOKUP(A29,'Компоненты цена'!A:B,2,1)</f>
-        <v>9.6999999999999993</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>38.799999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
       </c>
       <c r="C30" s="2">
         <f>VLOOKUP(A30,'Компоненты цена'!A:B,2,1)</f>
@@ -999,15 +999,15 @@
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" s="2">
         <f>VLOOKUP(A31,'Компоненты цена'!A:B,2,1)</f>
@@ -1015,115 +1015,35 @@
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C32" s="2">
-        <f>VLOOKUP(A32,'Компоненты цена'!A:B,2,1)</f>
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="2">
-        <f>VLOOKUP(A33,'Компоненты цена'!A:B,2,1)</f>
-        <v>1.746</v>
+        <v>31</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
-        <v>1.746</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="2">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2">
-        <f>VLOOKUP(A34,'Компоненты цена'!A:B,2,1)</f>
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="2">
-        <v>2</v>
-      </c>
-      <c r="C35" s="2">
-        <f>VLOOKUP(A35,'Компоненты цена'!A:B,2,1)</f>
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="2">
-        <v>2</v>
-      </c>
-      <c r="C36" s="2">
-        <f>VLOOKUP(A36,'Компоненты цена'!A:B,2,1)</f>
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="2">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2">
-        <v>250</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="2">
-        <v>2</v>
-      </c>
-      <c r="C38" s="2">
-        <v>31</v>
-      </c>
-      <c r="D38">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
